--- a/data/georgia_census/shida-qartli/gori/population_total.xlsx
+++ b/data/georgia_census/shida-qartli/gori/population_total.xlsx
@@ -1351,13 +1351,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A75AB3A7-DE0D-478E-9D4B-4BE5B371D909}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75197D57-E535-48DC-A66B-62F37B32DF3F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A37D0177-7CE7-4F3D-8BE4-E02A84D9FE50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BBBB42B-48A9-468E-82E8-26C47D8400EC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFA562D6-89E8-451E-9209-ABCE10A88E05}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DC5190D-66C5-439D-9B2E-851AEE9FFBC7}"/>
 </file>